--- a/gad_checa_gestion_cementerio/CATASTRO_FINAL.xlsx
+++ b/gad_checa_gestion_cementerio/CATASTRO_FINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanditv/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanditv/Documents/teobu/gad_checa_gestion_cementerio/gad_checa_gestion_cementerio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09624F33-25D8-F24B-B614-8D99B5B176D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDA423-40C2-EB4B-9B89-A75B8292C242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8198,6 +8198,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8216,11 +8222,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8239,9 +8242,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8580,8 +8580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0828DDD-6081-4D00-8AF8-55CB2C3B5820}">
   <dimension ref="A1:K344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8598,19 +8598,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>1065</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -8648,19 +8648,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1081</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
@@ -9476,19 +9476,19 @@
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="64" t="s">
         <v>1082</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
@@ -10323,19 +10323,19 @@
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="64" t="s">
         <v>1083</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
@@ -10768,19 +10768,19 @@
       <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="70" t="s">
+      <c r="A91" s="64" t="s">
         <v>1084</v>
       </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
@@ -11188,19 +11188,19 @@
       <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="70" t="s">
+      <c r="A109" s="64" t="s">
         <v>1085</v>
       </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="64"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
@@ -11625,19 +11625,19 @@
       <c r="K127" s="9"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="70" t="s">
+      <c r="A128" s="64" t="s">
         <v>1086</v>
       </c>
-      <c r="B128" s="70"/>
-      <c r="C128" s="70"/>
-      <c r="D128" s="70"/>
-      <c r="E128" s="70"/>
-      <c r="F128" s="70"/>
-      <c r="G128" s="70"/>
-      <c r="H128" s="70"/>
-      <c r="I128" s="70"/>
-      <c r="J128" s="70"/>
-      <c r="K128" s="70"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="64"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="64"/>
+      <c r="J128" s="64"/>
+      <c r="K128" s="64"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
@@ -12099,19 +12099,19 @@
       <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="70" t="s">
+      <c r="A148" s="64" t="s">
         <v>1087</v>
       </c>
-      <c r="B148" s="70"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="70"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="70"/>
-      <c r="G148" s="70"/>
-      <c r="H148" s="70"/>
-      <c r="I148" s="70"/>
-      <c r="J148" s="70"/>
-      <c r="K148" s="70"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="64"/>
+      <c r="D148" s="64"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="64"/>
+      <c r="G148" s="64"/>
+      <c r="H148" s="64"/>
+      <c r="I148" s="64"/>
+      <c r="J148" s="64"/>
+      <c r="K148" s="64"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
@@ -12987,19 +12987,19 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="70" t="s">
+      <c r="A185" s="64" t="s">
         <v>1088</v>
       </c>
-      <c r="B185" s="70"/>
-      <c r="C185" s="70"/>
-      <c r="D185" s="70"/>
-      <c r="E185" s="70"/>
-      <c r="F185" s="70"/>
-      <c r="G185" s="70"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="70"/>
-      <c r="J185" s="70"/>
-      <c r="K185" s="70"/>
+      <c r="B185" s="64"/>
+      <c r="C185" s="64"/>
+      <c r="D185" s="64"/>
+      <c r="E185" s="64"/>
+      <c r="F185" s="64"/>
+      <c r="G185" s="64"/>
+      <c r="H185" s="64"/>
+      <c r="I185" s="64"/>
+      <c r="J185" s="64"/>
+      <c r="K185" s="64"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
@@ -13990,19 +13990,19 @@
       <c r="K224" s="9"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="70" t="s">
+      <c r="A225" s="64" t="s">
         <v>1150</v>
       </c>
-      <c r="B225" s="70"/>
-      <c r="C225" s="70"/>
-      <c r="D225" s="70"/>
-      <c r="E225" s="70"/>
-      <c r="F225" s="70"/>
-      <c r="G225" s="70"/>
-      <c r="H225" s="70"/>
-      <c r="I225" s="70"/>
-      <c r="J225" s="70"/>
-      <c r="K225" s="70"/>
+      <c r="B225" s="64"/>
+      <c r="C225" s="64"/>
+      <c r="D225" s="64"/>
+      <c r="E225" s="64"/>
+      <c r="F225" s="64"/>
+      <c r="G225" s="64"/>
+      <c r="H225" s="64"/>
+      <c r="I225" s="64"/>
+      <c r="J225" s="64"/>
+      <c r="K225" s="64"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="9">
@@ -14139,19 +14139,19 @@
       <c r="K231" s="9"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="71" t="s">
+      <c r="A232" s="65" t="s">
         <v>1072</v>
       </c>
-      <c r="B232" s="71"/>
-      <c r="C232" s="71"/>
-      <c r="D232" s="71"/>
-      <c r="E232" s="71"/>
-      <c r="F232" s="71"/>
-      <c r="G232" s="71"/>
-      <c r="H232" s="71"/>
-      <c r="I232" s="71"/>
-      <c r="J232" s="71"/>
-      <c r="K232" s="71"/>
+      <c r="B232" s="65"/>
+      <c r="C232" s="65"/>
+      <c r="D232" s="65"/>
+      <c r="E232" s="65"/>
+      <c r="F232" s="65"/>
+      <c r="G232" s="65"/>
+      <c r="H232" s="65"/>
+      <c r="I232" s="65"/>
+      <c r="J232" s="65"/>
+      <c r="K232" s="65"/>
     </row>
     <row r="233" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="34" t="s">
@@ -14189,19 +14189,19 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="70" t="s">
+      <c r="A234" s="64" t="s">
         <v>1075</v>
       </c>
-      <c r="B234" s="70"/>
-      <c r="C234" s="70"/>
-      <c r="D234" s="70"/>
-      <c r="E234" s="70"/>
-      <c r="F234" s="70"/>
-      <c r="G234" s="70"/>
-      <c r="H234" s="70"/>
-      <c r="I234" s="70"/>
-      <c r="J234" s="70"/>
-      <c r="K234" s="70"/>
+      <c r="B234" s="64"/>
+      <c r="C234" s="64"/>
+      <c r="D234" s="64"/>
+      <c r="E234" s="64"/>
+      <c r="F234" s="64"/>
+      <c r="G234" s="64"/>
+      <c r="H234" s="64"/>
+      <c r="I234" s="64"/>
+      <c r="J234" s="64"/>
+      <c r="K234" s="64"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="21">
@@ -16366,6 +16366,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A109:K109"/>
+    <mergeCell ref="A148:K148"/>
     <mergeCell ref="A234:K234"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="A91:K91"/>
@@ -16373,11 +16378,6 @@
     <mergeCell ref="A185:K185"/>
     <mergeCell ref="A225:K225"/>
     <mergeCell ref="A232:K232"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A109:K109"/>
-    <mergeCell ref="A148:K148"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J269" r:id="rId1" xr:uid="{B3AD7C3D-37BC-4C3E-8426-B926D02102DB}"/>
@@ -16428,16 +16428,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -16466,14 +16466,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
@@ -19648,19 +19648,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>1058</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -19698,19 +19698,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>1059</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
@@ -20882,19 +20882,19 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="69" t="s">
         <v>1060</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="69"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="71"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
@@ -22053,19 +22053,19 @@
       <c r="K104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="67" t="s">
+      <c r="A105" s="69" t="s">
         <v>1061</v>
       </c>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="68"/>
-      <c r="I105" s="68"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="69"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="71"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
@@ -22816,19 +22816,19 @@
       <c r="L135" s="7"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="67" t="s">
+      <c r="A136" s="69" t="s">
         <v>1062</v>
       </c>
-      <c r="B136" s="68"/>
-      <c r="C136" s="68"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="68"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="68"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="69"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="70"/>
+      <c r="G136" s="70"/>
+      <c r="H136" s="70"/>
+      <c r="I136" s="70"/>
+      <c r="J136" s="70"/>
+      <c r="K136" s="71"/>
       <c r="L136" s="7"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -23670,19 +23670,19 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="67" t="s">
+      <c r="A171" s="69" t="s">
         <v>1074</v>
       </c>
-      <c r="B171" s="68"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="68"/>
-      <c r="F171" s="68"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="68"/>
-      <c r="I171" s="68"/>
-      <c r="J171" s="68"/>
-      <c r="K171" s="69"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+      <c r="F171" s="70"/>
+      <c r="G171" s="70"/>
+      <c r="H171" s="70"/>
+      <c r="I171" s="70"/>
+      <c r="J171" s="70"/>
+      <c r="K171" s="71"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
@@ -24862,19 +24862,19 @@
       <c r="K220" s="9"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="67" t="s">
+      <c r="A221" s="69" t="s">
         <v>1143</v>
       </c>
-      <c r="B221" s="68"/>
-      <c r="C221" s="68"/>
-      <c r="D221" s="68"/>
-      <c r="E221" s="68"/>
-      <c r="F221" s="68"/>
-      <c r="G221" s="68"/>
-      <c r="H221" s="68"/>
-      <c r="I221" s="68"/>
-      <c r="J221" s="68"/>
-      <c r="K221" s="69"/>
+      <c r="B221" s="70"/>
+      <c r="C221" s="70"/>
+      <c r="D221" s="70"/>
+      <c r="E221" s="70"/>
+      <c r="F221" s="70"/>
+      <c r="G221" s="70"/>
+      <c r="H221" s="70"/>
+      <c r="I221" s="70"/>
+      <c r="J221" s="70"/>
+      <c r="K221" s="71"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
@@ -25623,19 +25623,19 @@
       <c r="K251" s="9"/>
     </row>
     <row r="252" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="64" t="s">
+      <c r="A252" s="66" t="s">
         <v>1079</v>
       </c>
-      <c r="B252" s="65"/>
-      <c r="C252" s="65"/>
-      <c r="D252" s="65"/>
-      <c r="E252" s="65"/>
-      <c r="F252" s="65"/>
-      <c r="G252" s="65"/>
-      <c r="H252" s="65"/>
-      <c r="I252" s="65"/>
-      <c r="J252" s="65"/>
-      <c r="K252" s="66"/>
+      <c r="B252" s="67"/>
+      <c r="C252" s="67"/>
+      <c r="D252" s="67"/>
+      <c r="E252" s="67"/>
+      <c r="F252" s="67"/>
+      <c r="G252" s="67"/>
+      <c r="H252" s="67"/>
+      <c r="I252" s="67"/>
+      <c r="J252" s="67"/>
+      <c r="K252" s="68"/>
     </row>
     <row r="253" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="34" t="s">
@@ -25671,19 +25671,19 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="72" t="s">
+      <c r="A254" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B254" s="73"/>
-      <c r="C254" s="73"/>
-      <c r="D254" s="73"/>
-      <c r="E254" s="73"/>
-      <c r="F254" s="73"/>
-      <c r="G254" s="73"/>
-      <c r="H254" s="73"/>
-      <c r="I254" s="73"/>
-      <c r="J254" s="73"/>
-      <c r="K254" s="74"/>
+      <c r="B254" s="74"/>
+      <c r="C254" s="74"/>
+      <c r="D254" s="74"/>
+      <c r="E254" s="74"/>
+      <c r="F254" s="74"/>
+      <c r="G254" s="74"/>
+      <c r="H254" s="74"/>
+      <c r="I254" s="74"/>
+      <c r="J254" s="74"/>
+      <c r="K254" s="75"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="9">
@@ -26277,19 +26277,19 @@
       <c r="K279" s="9"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="75" t="s">
+      <c r="A280" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B280" s="76"/>
-      <c r="C280" s="76"/>
-      <c r="D280" s="76"/>
-      <c r="E280" s="76"/>
-      <c r="F280" s="76"/>
-      <c r="G280" s="76"/>
-      <c r="H280" s="76"/>
-      <c r="I280" s="76"/>
-      <c r="J280" s="76"/>
-      <c r="K280" s="77"/>
+      <c r="B280" s="77"/>
+      <c r="C280" s="77"/>
+      <c r="D280" s="77"/>
+      <c r="E280" s="77"/>
+      <c r="F280" s="77"/>
+      <c r="G280" s="77"/>
+      <c r="H280" s="77"/>
+      <c r="I280" s="77"/>
+      <c r="J280" s="77"/>
+      <c r="K280" s="78"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="9">
@@ -26604,19 +26604,19 @@
       <c r="K294" s="9"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A295" s="75" t="s">
+      <c r="A295" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="B295" s="76"/>
-      <c r="C295" s="76"/>
-      <c r="D295" s="76"/>
-      <c r="E295" s="76"/>
-      <c r="F295" s="76"/>
-      <c r="G295" s="76"/>
-      <c r="H295" s="76"/>
-      <c r="I295" s="76"/>
-      <c r="J295" s="76"/>
-      <c r="K295" s="77"/>
+      <c r="B295" s="77"/>
+      <c r="C295" s="77"/>
+      <c r="D295" s="77"/>
+      <c r="E295" s="77"/>
+      <c r="F295" s="77"/>
+      <c r="G295" s="77"/>
+      <c r="H295" s="77"/>
+      <c r="I295" s="77"/>
+      <c r="J295" s="77"/>
+      <c r="K295" s="78"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="9">
@@ -26763,19 +26763,19 @@
       <c r="K301" s="9"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A302" s="75" t="s">
+      <c r="A302" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B302" s="76"/>
-      <c r="C302" s="76"/>
-      <c r="D302" s="76"/>
-      <c r="E302" s="76"/>
-      <c r="F302" s="76"/>
-      <c r="G302" s="76"/>
-      <c r="H302" s="76"/>
-      <c r="I302" s="76"/>
-      <c r="J302" s="76"/>
-      <c r="K302" s="77"/>
+      <c r="B302" s="77"/>
+      <c r="C302" s="77"/>
+      <c r="D302" s="77"/>
+      <c r="E302" s="77"/>
+      <c r="F302" s="77"/>
+      <c r="G302" s="77"/>
+      <c r="H302" s="77"/>
+      <c r="I302" s="77"/>
+      <c r="J302" s="77"/>
+      <c r="K302" s="78"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="9">
@@ -26912,19 +26912,19 @@
       <c r="K308" s="9"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A309" s="75" t="s">
+      <c r="A309" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B309" s="76"/>
-      <c r="C309" s="76"/>
-      <c r="D309" s="76"/>
-      <c r="E309" s="76"/>
-      <c r="F309" s="76"/>
-      <c r="G309" s="76"/>
-      <c r="H309" s="76"/>
-      <c r="I309" s="76"/>
-      <c r="J309" s="76"/>
-      <c r="K309" s="77"/>
+      <c r="B309" s="77"/>
+      <c r="C309" s="77"/>
+      <c r="D309" s="77"/>
+      <c r="E309" s="77"/>
+      <c r="F309" s="77"/>
+      <c r="G309" s="77"/>
+      <c r="H309" s="77"/>
+      <c r="I309" s="77"/>
+      <c r="J309" s="77"/>
+      <c r="K309" s="78"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="9">
@@ -26982,19 +26982,19 @@
       <c r="K312" s="9"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A313" s="75" t="s">
+      <c r="A313" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B313" s="76"/>
-      <c r="C313" s="76"/>
-      <c r="D313" s="76"/>
-      <c r="E313" s="76"/>
-      <c r="F313" s="76"/>
-      <c r="G313" s="76"/>
-      <c r="H313" s="76"/>
-      <c r="I313" s="76"/>
-      <c r="J313" s="76"/>
-      <c r="K313" s="77"/>
+      <c r="B313" s="77"/>
+      <c r="C313" s="77"/>
+      <c r="D313" s="77"/>
+      <c r="E313" s="77"/>
+      <c r="F313" s="77"/>
+      <c r="G313" s="77"/>
+      <c r="H313" s="77"/>
+      <c r="I313" s="77"/>
+      <c r="J313" s="77"/>
+      <c r="K313" s="78"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="9">
@@ -27249,19 +27249,19 @@
       <c r="K325" s="9"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A326" s="75" t="s">
+      <c r="A326" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="B326" s="76"/>
-      <c r="C326" s="76"/>
-      <c r="D326" s="76"/>
-      <c r="E326" s="76"/>
-      <c r="F326" s="76"/>
-      <c r="G326" s="76"/>
-      <c r="H326" s="76"/>
-      <c r="I326" s="76"/>
-      <c r="J326" s="76"/>
-      <c r="K326" s="77"/>
+      <c r="B326" s="77"/>
+      <c r="C326" s="77"/>
+      <c r="D326" s="77"/>
+      <c r="E326" s="77"/>
+      <c r="F326" s="77"/>
+      <c r="G326" s="77"/>
+      <c r="H326" s="77"/>
+      <c r="I326" s="77"/>
+      <c r="J326" s="77"/>
+      <c r="K326" s="78"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="9">
@@ -27321,19 +27321,19 @@
       <c r="K329" s="9"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A330" s="75" t="s">
+      <c r="A330" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="B330" s="76"/>
-      <c r="C330" s="76"/>
-      <c r="D330" s="76"/>
-      <c r="E330" s="76"/>
-      <c r="F330" s="76"/>
-      <c r="G330" s="76"/>
-      <c r="H330" s="76"/>
-      <c r="I330" s="76"/>
-      <c r="J330" s="76"/>
-      <c r="K330" s="77"/>
+      <c r="B330" s="77"/>
+      <c r="C330" s="77"/>
+      <c r="D330" s="77"/>
+      <c r="E330" s="77"/>
+      <c r="F330" s="77"/>
+      <c r="G330" s="77"/>
+      <c r="H330" s="77"/>
+      <c r="I330" s="77"/>
+      <c r="J330" s="77"/>
+      <c r="K330" s="78"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="9">
@@ -27770,19 +27770,19 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A349" s="75" t="s">
+      <c r="A349" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="B349" s="76"/>
-      <c r="C349" s="76"/>
-      <c r="D349" s="76"/>
-      <c r="E349" s="76"/>
-      <c r="F349" s="76"/>
-      <c r="G349" s="76"/>
-      <c r="H349" s="76"/>
-      <c r="I349" s="76"/>
-      <c r="J349" s="76"/>
-      <c r="K349" s="77"/>
+      <c r="B349" s="77"/>
+      <c r="C349" s="77"/>
+      <c r="D349" s="77"/>
+      <c r="E349" s="77"/>
+      <c r="F349" s="77"/>
+      <c r="G349" s="77"/>
+      <c r="H349" s="77"/>
+      <c r="I349" s="77"/>
+      <c r="J349" s="77"/>
+      <c r="K349" s="78"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="9">
@@ -28475,19 +28475,19 @@
       <c r="K377" s="9"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A378" s="75" t="s">
+      <c r="A378" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="B378" s="76"/>
-      <c r="C378" s="76"/>
-      <c r="D378" s="76"/>
-      <c r="E378" s="76"/>
-      <c r="F378" s="76"/>
-      <c r="G378" s="76"/>
-      <c r="H378" s="76"/>
-      <c r="I378" s="76"/>
-      <c r="J378" s="76"/>
-      <c r="K378" s="77"/>
+      <c r="B378" s="77"/>
+      <c r="C378" s="77"/>
+      <c r="D378" s="77"/>
+      <c r="E378" s="77"/>
+      <c r="F378" s="77"/>
+      <c r="G378" s="77"/>
+      <c r="H378" s="77"/>
+      <c r="I378" s="77"/>
+      <c r="J378" s="77"/>
+      <c r="K378" s="78"/>
     </row>
     <row r="379" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="9">
@@ -28935,19 +28935,19 @@
       <c r="K399" s="9"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A400" s="75" t="s">
+      <c r="A400" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="B400" s="76"/>
-      <c r="C400" s="76"/>
-      <c r="D400" s="76"/>
-      <c r="E400" s="76"/>
-      <c r="F400" s="76"/>
-      <c r="G400" s="76"/>
-      <c r="H400" s="76"/>
-      <c r="I400" s="76"/>
-      <c r="J400" s="76"/>
-      <c r="K400" s="77"/>
+      <c r="B400" s="77"/>
+      <c r="C400" s="77"/>
+      <c r="D400" s="77"/>
+      <c r="E400" s="77"/>
+      <c r="F400" s="77"/>
+      <c r="G400" s="77"/>
+      <c r="H400" s="77"/>
+      <c r="I400" s="77"/>
+      <c r="J400" s="77"/>
+      <c r="K400" s="78"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="9">
@@ -29334,19 +29334,19 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A419" s="75" t="s">
+      <c r="A419" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B419" s="76"/>
-      <c r="C419" s="76"/>
-      <c r="D419" s="76"/>
-      <c r="E419" s="76"/>
-      <c r="F419" s="76"/>
-      <c r="G419" s="76"/>
-      <c r="H419" s="76"/>
-      <c r="I419" s="76"/>
-      <c r="J419" s="76"/>
-      <c r="K419" s="77"/>
+      <c r="B419" s="77"/>
+      <c r="C419" s="77"/>
+      <c r="D419" s="77"/>
+      <c r="E419" s="77"/>
+      <c r="F419" s="77"/>
+      <c r="G419" s="77"/>
+      <c r="H419" s="77"/>
+      <c r="I419" s="77"/>
+      <c r="J419" s="77"/>
+      <c r="K419" s="78"/>
     </row>
     <row r="420" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="28">
@@ -29659,19 +29659,19 @@
       <c r="K431" s="9"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A432" s="75" t="s">
+      <c r="A432" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="B432" s="76"/>
-      <c r="C432" s="76"/>
-      <c r="D432" s="76"/>
-      <c r="E432" s="76"/>
-      <c r="F432" s="76"/>
-      <c r="G432" s="76"/>
-      <c r="H432" s="76"/>
-      <c r="I432" s="76"/>
-      <c r="J432" s="76"/>
-      <c r="K432" s="77"/>
+      <c r="B432" s="77"/>
+      <c r="C432" s="77"/>
+      <c r="D432" s="77"/>
+      <c r="E432" s="77"/>
+      <c r="F432" s="77"/>
+      <c r="G432" s="77"/>
+      <c r="H432" s="77"/>
+      <c r="I432" s="77"/>
+      <c r="J432" s="77"/>
+      <c r="K432" s="78"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="28">
@@ -30093,19 +30093,19 @@
       <c r="K451" s="9"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A452" s="75" t="s">
+      <c r="A452" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="B452" s="76"/>
-      <c r="C452" s="76"/>
-      <c r="D452" s="76"/>
-      <c r="E452" s="76"/>
-      <c r="F452" s="76"/>
-      <c r="G452" s="76"/>
-      <c r="H452" s="76"/>
-      <c r="I452" s="76"/>
-      <c r="J452" s="76"/>
-      <c r="K452" s="77"/>
+      <c r="B452" s="77"/>
+      <c r="C452" s="77"/>
+      <c r="D452" s="77"/>
+      <c r="E452" s="77"/>
+      <c r="F452" s="77"/>
+      <c r="G452" s="77"/>
+      <c r="H452" s="77"/>
+      <c r="I452" s="77"/>
+      <c r="J452" s="77"/>
+      <c r="K452" s="78"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="28">
@@ -30668,19 +30668,19 @@
       <c r="K478" s="9"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A479" s="75" t="s">
+      <c r="A479" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="B479" s="76"/>
-      <c r="C479" s="76"/>
-      <c r="D479" s="76"/>
-      <c r="E479" s="76"/>
-      <c r="F479" s="76"/>
-      <c r="G479" s="76"/>
-      <c r="H479" s="76"/>
-      <c r="I479" s="76"/>
-      <c r="J479" s="76"/>
-      <c r="K479" s="77"/>
+      <c r="B479" s="77"/>
+      <c r="C479" s="77"/>
+      <c r="D479" s="77"/>
+      <c r="E479" s="77"/>
+      <c r="F479" s="77"/>
+      <c r="G479" s="77"/>
+      <c r="H479" s="77"/>
+      <c r="I479" s="77"/>
+      <c r="J479" s="77"/>
+      <c r="K479" s="78"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="18">
@@ -31148,19 +31148,19 @@
       <c r="K498" s="9"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A499" s="75" t="s">
+      <c r="A499" s="76" t="s">
         <v>1071</v>
       </c>
-      <c r="B499" s="76"/>
-      <c r="C499" s="76"/>
-      <c r="D499" s="76"/>
-      <c r="E499" s="76"/>
-      <c r="F499" s="76"/>
-      <c r="G499" s="76"/>
-      <c r="H499" s="76"/>
-      <c r="I499" s="76"/>
-      <c r="J499" s="76"/>
-      <c r="K499" s="77"/>
+      <c r="B499" s="77"/>
+      <c r="C499" s="77"/>
+      <c r="D499" s="77"/>
+      <c r="E499" s="77"/>
+      <c r="F499" s="77"/>
+      <c r="G499" s="77"/>
+      <c r="H499" s="77"/>
+      <c r="I499" s="77"/>
+      <c r="J499" s="77"/>
+      <c r="K499" s="78"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="63">
@@ -31698,19 +31698,19 @@
       <c r="K520" s="9"/>
     </row>
     <row r="521" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="64" t="s">
+      <c r="A521" s="66" t="s">
         <v>1078</v>
       </c>
-      <c r="B521" s="65"/>
-      <c r="C521" s="65"/>
-      <c r="D521" s="65"/>
-      <c r="E521" s="65"/>
-      <c r="F521" s="65"/>
-      <c r="G521" s="65"/>
-      <c r="H521" s="65"/>
-      <c r="I521" s="65"/>
-      <c r="J521" s="65"/>
-      <c r="K521" s="65"/>
+      <c r="B521" s="67"/>
+      <c r="C521" s="67"/>
+      <c r="D521" s="67"/>
+      <c r="E521" s="67"/>
+      <c r="F521" s="67"/>
+      <c r="G521" s="67"/>
+      <c r="H521" s="67"/>
+      <c r="I521" s="67"/>
+      <c r="J521" s="67"/>
+      <c r="K521" s="67"/>
     </row>
     <row r="522" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A522" s="34" t="s">
@@ -31746,19 +31746,19 @@
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A523" s="78" t="s">
+      <c r="A523" s="72" t="s">
         <v>1075</v>
       </c>
-      <c r="B523" s="78"/>
-      <c r="C523" s="78"/>
-      <c r="D523" s="78"/>
-      <c r="E523" s="78"/>
-      <c r="F523" s="78"/>
-      <c r="G523" s="78"/>
-      <c r="H523" s="78"/>
-      <c r="I523" s="78"/>
-      <c r="J523" s="78"/>
-      <c r="K523" s="78"/>
+      <c r="B523" s="72"/>
+      <c r="C523" s="72"/>
+      <c r="D523" s="72"/>
+      <c r="E523" s="72"/>
+      <c r="F523" s="72"/>
+      <c r="G523" s="72"/>
+      <c r="H523" s="72"/>
+      <c r="I523" s="72"/>
+      <c r="J523" s="72"/>
+      <c r="K523" s="72"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="21">
@@ -33886,19 +33886,19 @@
       <c r="K606" s="9"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A607" s="78" t="s">
+      <c r="A607" s="72" t="s">
         <v>1076</v>
       </c>
-      <c r="B607" s="78"/>
-      <c r="C607" s="78"/>
-      <c r="D607" s="78"/>
-      <c r="E607" s="78"/>
-      <c r="F607" s="78"/>
-      <c r="G607" s="78"/>
-      <c r="H607" s="78"/>
-      <c r="I607" s="78"/>
-      <c r="J607" s="78"/>
-      <c r="K607" s="78"/>
+      <c r="B607" s="72"/>
+      <c r="C607" s="72"/>
+      <c r="D607" s="72"/>
+      <c r="E607" s="72"/>
+      <c r="F607" s="72"/>
+      <c r="G607" s="72"/>
+      <c r="H607" s="72"/>
+      <c r="I607" s="72"/>
+      <c r="J607" s="72"/>
+      <c r="K607" s="72"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="43">
@@ -35983,19 +35983,19 @@
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A680" s="72" t="s">
+      <c r="A680" s="73" t="s">
         <v>1077</v>
       </c>
-      <c r="B680" s="73"/>
-      <c r="C680" s="73"/>
-      <c r="D680" s="73"/>
-      <c r="E680" s="73"/>
-      <c r="F680" s="73"/>
-      <c r="G680" s="73"/>
-      <c r="H680" s="73"/>
-      <c r="I680" s="73"/>
-      <c r="J680" s="73"/>
-      <c r="K680" s="74"/>
+      <c r="B680" s="74"/>
+      <c r="C680" s="74"/>
+      <c r="D680" s="74"/>
+      <c r="E680" s="74"/>
+      <c r="F680" s="74"/>
+      <c r="G680" s="74"/>
+      <c r="H680" s="74"/>
+      <c r="I680" s="74"/>
+      <c r="J680" s="74"/>
+      <c r="K680" s="75"/>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681" s="21">
@@ -36951,6 +36951,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A254:K254"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A349:K349"/>
+    <mergeCell ref="A378:K378"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A280:K280"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A136:K136"/>
+    <mergeCell ref="A171:K171"/>
     <mergeCell ref="A523:K523"/>
     <mergeCell ref="A607:K607"/>
     <mergeCell ref="A680:K680"/>
@@ -36967,18 +36979,6 @@
     <mergeCell ref="A309:K309"/>
     <mergeCell ref="A302:K302"/>
     <mergeCell ref="A330:K330"/>
-    <mergeCell ref="A254:K254"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A349:K349"/>
-    <mergeCell ref="A378:K378"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A280:K280"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A136:K136"/>
-    <mergeCell ref="A171:K171"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
